--- a/src/Product.xlsx
+++ b/src/Product.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>商品编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,10 +37,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>口香糖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>牛奶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -54,6 +50,14 @@
   </si>
   <si>
     <t>玉米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芹菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不卖这玩意儿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -97,8 +101,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -371,7 +378,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -382,93 +389,96 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1001</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="1">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>1002</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="1">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>1003</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>1004</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>6</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>1005</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>4</v>
       </c>
-      <c r="D6">
-        <v>15</v>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
